--- a/Website_soccer_final/assets/Todo.xlsx
+++ b/Website_soccer_final/assets/Todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\BammBamm\Website_soccer_excel_local\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rembe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E97FB-9D64-40AE-A7C7-12F51D44DDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E968FD3-7192-42A5-98AD-063DA111C964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D1177984-95B0-44B4-90F6-424110F97051}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{D1177984-95B0-44B4-90F6-424110F97051}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TO DO WEBSITE BAMMBAMMM</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>stats</t>
+  </si>
+  <si>
+    <t>gestroomlijnder maken (enkele pag voor speleren dan juiste variabelen fetchen)</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -148,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,20 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C3BA04-3533-4AC1-A3B5-F7B0F9CE722E}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,42 +468,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -514,14 +517,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
